--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +50,18 @@
   </si>
   <si>
     <t>修复编辑账户时清空密码的Bug</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加用户个人主页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现显示好友的最新动态功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -92,7 +109,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -150,7 +167,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,7 +202,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -394,20 +411,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.75" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,12 +441,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>10.18</v>
+        <v>11.18</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -441,12 +458,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.19</v>
+        <v>11.19</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -458,17 +475,42 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>10.19</v>
+        <v>11.19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11.19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="14800" windowHeight="8020"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -62,6 +62,18 @@
   </si>
   <si>
     <t>实现显示好友的最新动态功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封禁用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭俊石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请好友加入小组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -109,7 +121,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -411,20 +423,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.625" customWidth="1"/>
+    <col min="4" max="4" width="16.875" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -441,7 +453,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -458,7 +470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -475,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -485,11 +497,14 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
       <c r="E4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,8 +514,45 @@
       <c r="C5" t="s">
         <v>8</v>
       </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
       <c r="E5" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>11.19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>11.19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8025"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +74,18 @@
   </si>
   <si>
     <t>邀请好友加入小组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加小组管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加评论管理功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -117,11 +129,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -423,20 +436,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="16.875" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,12 +467,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>11.18</v>
+      <c r="B2" s="1">
+        <v>41596</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -470,12 +484,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>11.19</v>
+      <c r="B3" s="1">
+        <v>41597</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -487,12 +501,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>11.19</v>
+      <c r="B4" s="1">
+        <v>41597</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -504,12 +518,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>11.19</v>
+      <c r="B5" s="1">
+        <v>41597</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -521,12 +535,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>11.19</v>
+      <c r="B6" s="1">
+        <v>41597</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -538,12 +552,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>11.19</v>
+      <c r="B7" s="1">
+        <v>41597</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -553,6 +567,40 @@
       </c>
       <c r="E7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>41598</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>41598</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,6 +86,14 @@
   </si>
   <si>
     <t>添加评论管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加话题管理功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -93,7 +101,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +113,14 @@
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -129,9 +145,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="普通" xfId="0" builtinId="0"/>
@@ -436,48 +460,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>41596</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>7</v>
       </c>
       <c r="E2" t="s">
@@ -485,16 +510,16 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>41597</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
       <c r="E3" t="s">
@@ -502,16 +527,16 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>41597</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>11</v>
       </c>
       <c r="E4" t="s">
@@ -519,16 +544,16 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>41597</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>11</v>
       </c>
       <c r="E5" t="s">
@@ -536,16 +561,16 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>41597</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>20</v>
       </c>
       <c r="E6" t="s">
@@ -553,16 +578,16 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>41597</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>9</v>
       </c>
       <c r="E7" t="s">
@@ -570,16 +595,16 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>41598</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>8</v>
       </c>
       <c r="E8" t="s">
@@ -587,20 +612,37 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>41598</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>8</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>41598</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,14 @@
   </si>
   <si>
     <t>添加话题管理功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加管理员查看人气话题的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -605,7 +613,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
@@ -622,7 +630,7 @@
         <v>14</v>
       </c>
       <c r="D9" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E9" t="s">
         <v>16</v>
@@ -639,10 +647,27 @@
         <v>17</v>
       </c>
       <c r="D10" s="2">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>41598</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="2">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14445"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -102,6 +102,22 @@
   </si>
   <si>
     <t>添加管理员查看人气话题的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋壬初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加入小组的申请机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋壬初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核系统的构建</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +182,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -468,22 +484,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -517,7 +533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -534,7 +550,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -551,7 +567,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -568,7 +584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -585,7 +601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -602,7 +618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -619,7 +635,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -636,7 +652,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -653,7 +669,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -668,6 +684,37 @@
       </c>
       <c r="E11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>41598</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>41598</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14445"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,14 @@
   </si>
   <si>
     <t>审核系统的构建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加内容访问次数统计的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +190,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -484,22 +492,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +524,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -533,7 +541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -550,7 +558,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -567,7 +575,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -584,7 +592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -601,7 +609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -618,7 +626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -635,7 +643,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -652,7 +660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -669,7 +677,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -686,7 +694,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -703,7 +711,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -715,6 +723,20 @@
       </c>
       <c r="E13" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>41599</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加入小组的申请机制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>宋壬初</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,6 +122,18 @@
   </si>
   <si>
     <t>添加内容访问次数统计的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋壬初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始写小组的申请机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成申请加入小组机制</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,7 +198,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -492,22 +500,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +532,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -541,7 +549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -558,7 +566,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -575,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -592,7 +600,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -609,7 +617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -626,7 +634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -643,7 +651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -660,7 +668,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -677,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -694,7 +702,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -708,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -719,13 +727,13 @@
         <v>41598</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s">
         <v>23</v>
       </c>
-      <c r="E13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -733,16 +741,33 @@
         <v>41599</v>
       </c>
       <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>41599</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="D15" s="2">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,14 @@
   </si>
   <si>
     <t>完成申请加入小组机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋壬初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIP用户的申请与审核</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -256,7 +264,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -764,6 +772,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>41600</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="2">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>VIP用户的申请与审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实现管理员向用户推荐小组的功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +214,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -264,7 +272,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -299,7 +307,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -508,22 +516,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.875" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -540,7 +548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -557,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -574,7 +582,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -591,7 +599,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -608,7 +616,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -625,7 +633,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -642,7 +650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -659,7 +667,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -676,7 +684,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -693,7 +701,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -710,7 +718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -727,7 +735,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -741,7 +749,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -755,7 +763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -772,7 +780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -787,12 +795,29 @@
       </c>
       <c r="E16" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>41600</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +158,30 @@
   </si>
   <si>
     <t>VIP用户广告发布系统，广告审核系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image Helper图像处理类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Category管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钱包数据模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋壬初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广告点击统计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -280,7 +304,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,7 +339,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -524,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -853,6 +877,82 @@
         <v>34</v>
       </c>
     </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>41601</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>41601</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>41601</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>41601</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="2">
+        <v>12</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>41601</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="2">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,6 +182,26 @@
   </si>
   <si>
     <t>广告点击统计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加网站访问日志的功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加了内容评分和赞的系统，应用于话题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文件缓存机制，缓存动态内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +266,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -304,7 +324,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -339,7 +359,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -548,22 +568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.875" style="2"/>
-    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="32.625" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="2"/>
+    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +600,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -597,7 +617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -614,7 +634,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -631,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -648,7 +668,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -665,7 +685,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -682,7 +702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -699,7 +719,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -716,7 +736,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -733,7 +753,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -750,7 +770,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -767,7 +787,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -781,7 +801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -795,7 +815,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -812,7 +832,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -829,7 +849,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -846,7 +866,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -860,7 +880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -877,7 +897,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -891,7 +911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -905,7 +925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -919,7 +939,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -936,7 +956,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -951,6 +971,48 @@
       </c>
       <c r="E24" t="s">
         <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>41603</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>41603</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3">
+        <v>41603</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="23613"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14340"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,14 @@
   </si>
   <si>
     <t>文件缓存机制，缓存动态内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雷建坤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统日志</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -266,7 +274,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -568,22 +576,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" style="2"/>
-    <col min="2" max="2" width="11.1640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.83203125" customWidth="1"/>
+    <col min="1" max="1" width="8.875" style="2"/>
+    <col min="2" max="2" width="11.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -617,7 +625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -634,7 +642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -651,7 +659,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -668,7 +676,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -685,7 +693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -702,7 +710,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -719,7 +727,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -736,7 +744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -753,7 +761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -770,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -787,7 +795,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -801,7 +809,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -815,7 +823,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -832,7 +840,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -849,7 +857,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -866,7 +874,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -880,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -897,7 +905,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -911,7 +919,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -925,7 +933,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -939,7 +947,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -956,7 +964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -973,7 +981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -987,7 +995,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -1001,7 +1009,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -1013,6 +1021,20 @@
       </c>
       <c r="E27" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3">
+        <v>41604</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/docs/process.xlsx
+++ b/docs/process.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -210,6 +210,14 @@
   </si>
   <si>
     <t>系统日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋壬初</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看所有好友</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -332,7 +340,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -367,7 +375,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1037,6 +1045,23 @@
         <v>47</v>
       </c>
     </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41605</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
